--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Desktop\GitHub\NeuralNetwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GitHub\NeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED57E71-F50F-4E44-80FC-C5F8B31E5797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613C28B0-BF8D-4A69-805E-29F222F0D672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRIS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
   <si>
     <t>Função de treino</t>
   </si>
@@ -190,12 +190,6 @@
   </si>
   <si>
     <t>42.3</t>
-  </si>
-  <si>
-    <t>start/test</t>
-  </si>
-  <si>
-    <t>train/test</t>
   </si>
   <si>
     <t>68.3</t>
@@ -299,6 +293,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,6 +309,7 @@
       <sz val="18"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,15 +514,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -540,6 +527,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -956,10 +952,10 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -968,7 +964,7 @@
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.149999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -994,7 +990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1020,8 +1016,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:10" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1046,24 +1042,22 @@
       <c r="H4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>75</v>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -1086,25 +1080,26 @@
       <c r="H6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="7" spans="1:10" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1127,13 +1122,12 @@
         <v>90</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1156,13 +1150,11 @@
         <v>90</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1185,13 +1177,11 @@
         <v>39</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1216,24 +1206,25 @@
       <c r="H12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1256,13 +1247,11 @@
         <v>41</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1282,16 +1271,14 @@
         <v>8</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H16" s="8">
         <v>75</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1311,16 +1298,14 @@
         <v>8</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" s="8">
         <v>40</v>
       </c>
-      <c r="I17" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1340,29 +1325,33 @@
         <v>8</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:9" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1382,16 +1371,14 @@
         <v>8</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1414,13 +1401,11 @@
         <v>74</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1440,16 +1425,14 @@
         <v>8</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1469,16 +1452,14 @@
         <v>8</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -1501,13 +1482,11 @@
         <v>17</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1527,29 +1506,27 @@
         <v>8</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:9" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" spans="1:9" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -1569,14 +1546,14 @@
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H30" s="8">
         <v>60</v>
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1596,13 +1573,13 @@
         <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -1622,13 +1599,13 @@
         <v>37</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H32" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
@@ -1651,10 +1628,10 @@
         <v>77</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1677,11 +1654,11 @@
         <v>84</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1701,7 +1678,7 @@
         <v>42</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>27</v>

--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GitHub\NeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613C28B0-BF8D-4A69-805E-29F222F0D672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910104A1-704E-46C4-96E8-E287EDDDAC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3945" windowWidth="21600" windowHeight="11423" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IRIS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>Função de treino</t>
   </si>
@@ -135,9 +135,6 @@
     <t>hardlim, hardlims</t>
   </si>
   <si>
-    <t>73.3</t>
-  </si>
-  <si>
     <t>76.6</t>
   </si>
   <si>
@@ -147,15 +144,9 @@
     <t>dividerand = {0.50, 0.25, 0.25}</t>
   </si>
   <si>
-    <t>90.6</t>
-  </si>
-  <si>
     <t>dividerand = {0.60, 0.20, 0.20}</t>
   </si>
   <si>
-    <t>78.3</t>
-  </si>
-  <si>
     <t>dividerand = {0.40, 0.30, 0.30}</t>
   </si>
   <si>
@@ -198,21 +189,9 @@
     <t>71.6</t>
   </si>
   <si>
-    <t>58.8</t>
-  </si>
-  <si>
-    <t>89.3</t>
-  </si>
-  <si>
     <t>58.3</t>
   </si>
   <si>
-    <t>84.3</t>
-  </si>
-  <si>
-    <t>47.3</t>
-  </si>
-  <si>
     <t>95.3</t>
   </si>
   <si>
@@ -250,6 +229,18 @@
   </si>
   <si>
     <t xml:space="preserve">Melhor rede </t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>treino = test (c)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +475,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -527,6 +518,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -949,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -966,28 +960,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.149999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1037,10 +1031,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1057,7 +1051,7 @@
     </row>
     <row r="6" spans="1:10" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -1078,7 +1072,7 @@
         <v>97</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="10"/>
@@ -1087,16 +1081,16 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1110,7 +1104,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>24</v>
@@ -1119,10 +1113,10 @@
         <v>8</v>
       </c>
       <c r="G9" s="7">
-        <v>90</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>55</v>
+        <v>56.667000000000002</v>
+      </c>
+      <c r="H9" s="8">
+        <v>30</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="10"/>
@@ -1138,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>24</v>
@@ -1147,10 +1141,10 @@
         <v>8</v>
       </c>
       <c r="G10" s="7">
-        <v>90</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>54</v>
+        <v>76.667000000000002</v>
+      </c>
+      <c r="H10" s="8">
+        <v>31.667000000000002</v>
       </c>
       <c r="I10" s="11"/>
     </row>
@@ -1165,7 +1159,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>24</v>
@@ -1173,11 +1167,11 @@
       <c r="F11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>54</v>
+      <c r="G11" s="7">
+        <v>33.332999999999998</v>
+      </c>
+      <c r="H11" s="8">
+        <v>18.332999999999998</v>
       </c>
       <c r="I11" s="11"/>
     </row>
@@ -1192,7 +1186,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
@@ -1201,10 +1195,10 @@
         <v>8</v>
       </c>
       <c r="G12" s="7">
-        <v>92</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="H12" s="8">
+        <v>21.667000000000002</v>
       </c>
       <c r="I12" s="11"/>
     </row>
@@ -1212,16 +1206,16 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1243,11 +1237,11 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>56</v>
+      <c r="G15" s="7">
+        <v>47.33</v>
+      </c>
+      <c r="H15" s="8">
+        <v>35</v>
       </c>
       <c r="I15" s="11"/>
     </row>
@@ -1270,11 +1264,11 @@
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
+      <c r="G16" s="7">
+        <v>53.667000000000002</v>
       </c>
       <c r="H16" s="8">
-        <v>75</v>
+        <v>36.667000000000002</v>
       </c>
       <c r="I16" s="11"/>
     </row>
@@ -1297,8 +1291,8 @@
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>60</v>
+      <c r="G17" s="7">
+        <v>25.332999999999998</v>
       </c>
       <c r="H17" s="8">
         <v>40</v>
@@ -1324,11 +1318,11 @@
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>35</v>
+      <c r="G18" s="7">
+        <v>36</v>
+      </c>
+      <c r="H18" s="8">
+        <v>30</v>
       </c>
       <c r="I18" s="11"/>
     </row>
@@ -1339,16 +1333,16 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1371,10 +1365,10 @@
         <v>8</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I22" s="11"/>
     </row>
@@ -1401,7 +1395,7 @@
         <v>74</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I23" s="11"/>
     </row>
@@ -1425,10 +1419,10 @@
         <v>8</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I24" s="11"/>
     </row>
@@ -1452,10 +1446,10 @@
         <v>8</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I25" s="11"/>
     </row>
@@ -1482,7 +1476,7 @@
         <v>17</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I26" s="11"/>
     </row>
@@ -1506,25 +1500,25 @@
         <v>8</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="29" spans="1:9" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
@@ -1546,7 +1540,7 @@
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H30" s="8">
         <v>60</v>
@@ -1573,10 +1567,10 @@
         <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1596,10 +1590,10 @@
         <v>24</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H32" s="8">
         <v>65</v>
@@ -1622,13 +1616,13 @@
         <v>24</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" s="7">
         <v>77</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1648,13 +1642,13 @@
         <v>24</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G34" s="7">
         <v>84</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K34" s="10"/>
     </row>
@@ -1675,13 +1669,53 @@
         <v>24</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="3">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="7">
+        <v>85</v>
+      </c>
+      <c r="G39" s="8">
+        <v>40</v>
+      </c>
+      <c r="H39" s="8">
+        <v>47.667000000000002</v>
+      </c>
+      <c r="I39" s="8">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
